--- a/models/calculation engines/AL quarterly chart pack/Inputs/CM Global Bx Production inputs.xlsx
+++ b/models/calculation engines/AL quarterly chart pack/Inputs/CM Global Bx Production inputs.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOHN\Desktop\Python Data Project\Project5\New AL\Inputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45EF9BC9-F9E4-43C6-9AAD-824569417C37}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9090" xr2:uid="{46DD1C66-524C-46A7-87FB-3BD1B113ED8C}"/>
+    <workbookView windowWidth="20490" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary Chinese Province" sheetId="2" r:id="rId2"/>
+    <sheet name="China Provincial Imp" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="300">
   <si>
     <t>Name</t>
   </si>
@@ -850,30 +841,463 @@
   </si>
   <si>
     <t>Vietnam Others</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Q1 2017</t>
+  </si>
+  <si>
+    <t>Q2 2017</t>
+  </si>
+  <si>
+    <t>Q3 2017</t>
+  </si>
+  <si>
+    <t>Q4 2017</t>
+  </si>
+  <si>
+    <t>Q1 2018</t>
+  </si>
+  <si>
+    <t>Q2 2018</t>
+  </si>
+  <si>
+    <t>Q3 2018</t>
+  </si>
+  <si>
+    <t>Q4 2018</t>
+  </si>
+  <si>
+    <t>Q1 2019</t>
+  </si>
+  <si>
+    <t>Q2 2019</t>
+  </si>
+  <si>
+    <t>Q3 2019</t>
+  </si>
+  <si>
+    <t>Q4 2019</t>
+  </si>
+  <si>
+    <t>Q1 2020</t>
+  </si>
+  <si>
+    <t>Q2 2020</t>
+  </si>
+  <si>
+    <t>Q3 2020</t>
+  </si>
+  <si>
+    <t>Q4 2020</t>
+  </si>
+  <si>
+    <t>Chongqing</t>
+  </si>
+  <si>
+    <t>Guangxi</t>
+  </si>
+  <si>
+    <t>Guizhou</t>
+  </si>
+  <si>
+    <t>Henan</t>
+  </si>
+  <si>
+    <t>Inner Mongolia</t>
+  </si>
+  <si>
+    <t>Shandong</t>
+  </si>
+  <si>
+    <t>Shanxi</t>
+  </si>
+  <si>
+    <t>Yunnan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -881,24 +1305,334 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="千位分隔 5" xfId="27"/>
+    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="Bad" xfId="30" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="常规 2 2" xfId="37"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="39" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="40" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="41" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="44" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="45" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="47" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="50" builtinId="52"/>
+    <cellStyle name="Comma 7" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -947,7 +1681,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -980,26 +1714,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1032,23 +1749,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1190,26 +1890,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7058B8E3-CBAD-4D53-A4C2-B91356274811}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1287,7 +1982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1316,7 +2011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1336,7 +2031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1365,7 +2060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1385,7 +2080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1414,7 +2109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1443,7 +2138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1472,7 +2167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1492,7 +2187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1521,7 +2216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1541,7 +2236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1570,7 +2265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1590,7 +2285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1619,7 +2314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1639,7 +2334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1668,7 +2363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1688,7 +2383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1717,7 +2412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1737,7 +2432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1766,7 +2461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1786,7 +2481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1815,7 +2510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1835,7 +2530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1864,7 +2559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1884,7 +2579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1913,7 +2608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1933,7 +2628,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1962,7 +2657,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1982,7 +2677,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -2011,7 +2706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -2031,7 +2726,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2060,7 +2755,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -2080,7 +2775,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -2109,7 +2804,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -2129,7 +2824,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -2158,7 +2853,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2178,7 +2873,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -2207,7 +2902,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -2221,13 +2916,13 @@
         <v>31</v>
       </c>
       <c r="E41">
-        <v>0.11749999999999999</v>
+        <v>0.1175</v>
       </c>
       <c r="F41" t="s">
         <v>31</v>
       </c>
       <c r="G41">
-        <v>0.11749999999999999</v>
+        <v>0.1175</v>
       </c>
       <c r="H41" t="s">
         <v>63</v>
@@ -2236,7 +2931,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -2250,13 +2945,13 @@
         <v>21</v>
       </c>
       <c r="E42">
-        <v>0.14799999999999999</v>
+        <v>0.148</v>
       </c>
       <c r="F42" t="s">
         <v>21</v>
       </c>
       <c r="G42">
-        <v>0.14799999999999999</v>
+        <v>0.148</v>
       </c>
       <c r="H42" t="s">
         <v>63</v>
@@ -2265,7 +2960,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -2294,7 +2989,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -2308,13 +3003,13 @@
         <v>40</v>
       </c>
       <c r="E44">
-        <v>9.6199999999999994E-2</v>
+        <v>0.0962</v>
       </c>
       <c r="F44" t="s">
         <v>40</v>
       </c>
       <c r="G44">
-        <v>9.6199999999999994E-2</v>
+        <v>0.0962</v>
       </c>
       <c r="H44" t="s">
         <v>63</v>
@@ -2323,7 +3018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -2352,7 +3047,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -2366,13 +3061,13 @@
         <v>75</v>
       </c>
       <c r="E46">
-        <v>8.5800000000000001E-2</v>
+        <v>0.0858</v>
       </c>
       <c r="F46" t="s">
         <v>75</v>
       </c>
       <c r="G46">
-        <v>8.5800000000000001E-2</v>
+        <v>0.0858</v>
       </c>
       <c r="H46" t="s">
         <v>63</v>
@@ -2381,7 +3076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -2401,7 +3096,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -2430,7 +3125,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -2450,7 +3145,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -2479,7 +3174,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -2499,7 +3194,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -2528,7 +3223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -2548,7 +3243,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -2577,7 +3272,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -2597,7 +3292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>92</v>
       </c>
@@ -2626,7 +3321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -2646,7 +3341,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -2675,7 +3370,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>98</v>
       </c>
@@ -2695,7 +3390,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -2724,7 +3419,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -2744,7 +3439,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -2773,7 +3468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -2793,7 +3488,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -2822,7 +3517,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>111</v>
       </c>
@@ -2842,7 +3537,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -2871,7 +3566,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -2891,7 +3586,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>114</v>
       </c>
@@ -2920,7 +3615,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>114</v>
       </c>
@@ -2934,7 +3629,7 @@
         <v>31</v>
       </c>
       <c r="E69">
-        <v>0.22950000000000001</v>
+        <v>0.2295</v>
       </c>
       <c r="F69" t="s">
         <v>31</v>
@@ -2949,7 +3644,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -2963,7 +3658,7 @@
         <v>40</v>
       </c>
       <c r="E70">
-        <v>0.22950000000000001</v>
+        <v>0.2295</v>
       </c>
       <c r="F70" t="s">
         <v>40</v>
@@ -2978,7 +3673,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -2992,7 +3687,7 @@
         <v>116</v>
       </c>
       <c r="E71">
-        <v>5.0999999999999934E-2</v>
+        <v>0.0509999999999999</v>
       </c>
       <c r="F71" t="s">
         <v>116</v>
@@ -3007,7 +3702,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -3027,7 +3722,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -3056,7 +3751,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -3076,7 +3771,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -3105,7 +3800,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -3125,7 +3820,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -3154,7 +3849,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -3174,7 +3869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -3203,7 +3898,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -3223,7 +3918,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>130</v>
       </c>
@@ -3252,7 +3947,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>132</v>
       </c>
@@ -3272,7 +3967,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>133</v>
       </c>
@@ -3301,7 +3996,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>135</v>
       </c>
@@ -3321,7 +4016,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>136</v>
       </c>
@@ -3350,7 +4045,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>137</v>
       </c>
@@ -3370,7 +4065,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>138</v>
       </c>
@@ -3399,7 +4094,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>139</v>
       </c>
@@ -3419,7 +4114,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>140</v>
       </c>
@@ -3448,7 +4143,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>141</v>
       </c>
@@ -3468,7 +4163,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>142</v>
       </c>
@@ -3497,7 +4192,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>143</v>
       </c>
@@ -3517,7 +4212,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>144</v>
       </c>
@@ -3546,7 +4241,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>145</v>
       </c>
@@ -3566,7 +4261,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>146</v>
       </c>
@@ -3595,7 +4290,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>147</v>
       </c>
@@ -3615,7 +4310,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>148</v>
       </c>
@@ -3644,7 +4339,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>149</v>
       </c>
@@ -3664,7 +4359,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>151</v>
       </c>
@@ -3693,7 +4388,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>152</v>
       </c>
@@ -3713,7 +4408,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>153</v>
       </c>
@@ -3742,7 +4437,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>153</v>
       </c>
@@ -3771,7 +4466,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>156</v>
       </c>
@@ -3791,7 +4486,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>157</v>
       </c>
@@ -3820,7 +4515,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>158</v>
       </c>
@@ -3840,7 +4535,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>159</v>
       </c>
@@ -3869,7 +4564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>159</v>
       </c>
@@ -3898,7 +4593,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>160</v>
       </c>
@@ -3918,7 +4613,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>161</v>
       </c>
@@ -3947,7 +4642,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>163</v>
       </c>
@@ -3967,7 +4662,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>165</v>
       </c>
@@ -3981,13 +4676,13 @@
         <v>166</v>
       </c>
       <c r="E111">
-        <v>0.62359674224081008</v>
+        <v>0.62359674224081</v>
       </c>
       <c r="F111" t="s">
         <v>166</v>
       </c>
       <c r="G111">
-        <v>0.62359674224081008</v>
+        <v>0.62359674224081</v>
       </c>
       <c r="H111" t="s">
         <v>164</v>
@@ -3996,7 +4691,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>165</v>
       </c>
@@ -4010,13 +4705,13 @@
         <v>166</v>
       </c>
       <c r="E112">
-        <v>6.9809125499198141E-2</v>
+        <v>0.0698091254991981</v>
       </c>
       <c r="F112" t="s">
         <v>166</v>
       </c>
       <c r="G112">
-        <v>6.9809125499198141E-2</v>
+        <v>0.0698091254991981</v>
       </c>
       <c r="H112" t="s">
         <v>164</v>
@@ -4025,7 +4720,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>165</v>
       </c>
@@ -4039,13 +4734,13 @@
         <v>167</v>
       </c>
       <c r="E113">
-        <v>0.30659413225999183</v>
+        <v>0.306594132259992</v>
       </c>
       <c r="F113" t="s">
         <v>167</v>
       </c>
       <c r="G113">
-        <v>0.30659413225999183</v>
+        <v>0.306594132259992</v>
       </c>
       <c r="H113" t="s">
         <v>164</v>
@@ -4054,7 +4749,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -4074,7 +4769,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -4103,7 +4798,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>171</v>
       </c>
@@ -4123,7 +4818,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>172</v>
       </c>
@@ -4152,7 +4847,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>172</v>
       </c>
@@ -4181,7 +4876,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>172</v>
       </c>
@@ -4210,7 +4905,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>176</v>
       </c>
@@ -4230,7 +4925,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>177</v>
       </c>
@@ -4244,13 +4939,13 @@
         <v>166</v>
       </c>
       <c r="E121">
-        <v>0.36942992282798109</v>
+        <v>0.369429922827981</v>
       </c>
       <c r="F121" t="s">
         <v>166</v>
       </c>
       <c r="G121">
-        <v>0.36942992282798109</v>
+        <v>0.369429922827981</v>
       </c>
       <c r="H121" t="s">
         <v>164</v>
@@ -4259,7 +4954,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>177</v>
       </c>
@@ -4273,13 +4968,13 @@
         <v>166</v>
       </c>
       <c r="E122">
-        <v>0.53746577047547917</v>
+        <v>0.537465770475479</v>
       </c>
       <c r="F122" t="s">
         <v>166</v>
       </c>
       <c r="G122">
-        <v>0.53746577047547917</v>
+        <v>0.537465770475479</v>
       </c>
       <c r="H122" t="s">
         <v>164</v>
@@ -4288,7 +4983,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>177</v>
       </c>
@@ -4302,13 +4997,13 @@
         <v>167</v>
       </c>
       <c r="E123">
-        <v>9.3104306696539713E-2</v>
+        <v>0.0931043066965397</v>
       </c>
       <c r="F123" t="s">
         <v>167</v>
       </c>
       <c r="G123">
-        <v>9.3104306696539713E-2</v>
+        <v>0.0931043066965397</v>
       </c>
       <c r="H123" t="s">
         <v>164</v>
@@ -4317,7 +5012,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>178</v>
       </c>
@@ -4337,7 +5032,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>179</v>
       </c>
@@ -4366,7 +5061,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>180</v>
       </c>
@@ -4386,7 +5081,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>181</v>
       </c>
@@ -4415,7 +5110,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>181</v>
       </c>
@@ -4444,7 +5139,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>181</v>
       </c>
@@ -4473,7 +5168,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>183</v>
       </c>
@@ -4493,7 +5188,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -4522,7 +5217,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>186</v>
       </c>
@@ -4542,7 +5237,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>187</v>
       </c>
@@ -4556,13 +5251,13 @@
         <v>166</v>
       </c>
       <c r="E133">
-        <v>0.65569470854370215</v>
+        <v>0.655694708543702</v>
       </c>
       <c r="F133" t="s">
         <v>166</v>
       </c>
       <c r="G133">
-        <v>0.65569470854370215</v>
+        <v>0.655694708543702</v>
       </c>
       <c r="H133" t="s">
         <v>164</v>
@@ -4571,7 +5266,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>187</v>
       </c>
@@ -4585,13 +5280,13 @@
         <v>166</v>
       </c>
       <c r="E134">
-        <v>0.34430529145629779</v>
+        <v>0.344305291456298</v>
       </c>
       <c r="F134" t="s">
         <v>166</v>
       </c>
       <c r="G134">
-        <v>0.34430529145629779</v>
+        <v>0.344305291456298</v>
       </c>
       <c r="H134" t="s">
         <v>164</v>
@@ -4600,7 +5295,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>188</v>
       </c>
@@ -4620,7 +5315,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>189</v>
       </c>
@@ -4649,7 +5344,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>190</v>
       </c>
@@ -4669,7 +5364,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>192</v>
       </c>
@@ -4698,7 +5393,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>193</v>
       </c>
@@ -4718,7 +5413,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>194</v>
       </c>
@@ -4747,7 +5442,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>195</v>
       </c>
@@ -4767,7 +5462,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>196</v>
       </c>
@@ -4793,7 +5488,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>198</v>
       </c>
@@ -4813,7 +5508,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>201</v>
       </c>
@@ -4842,7 +5537,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>202</v>
       </c>
@@ -4862,7 +5557,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>205</v>
       </c>
@@ -4891,7 +5586,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>205</v>
       </c>
@@ -4920,7 +5615,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>208</v>
       </c>
@@ -4940,7 +5635,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>209</v>
       </c>
@@ -4954,13 +5649,13 @@
         <v>15</v>
       </c>
       <c r="E149">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="F149" t="s">
         <v>15</v>
       </c>
       <c r="G149">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="H149" t="s">
         <v>204</v>
@@ -4969,7 +5664,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>209</v>
       </c>
@@ -4998,7 +5693,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -5018,7 +5713,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>212</v>
       </c>
@@ -5047,7 +5742,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>212</v>
       </c>
@@ -5061,7 +5756,7 @@
         <v>207</v>
       </c>
       <c r="E153">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="F153" t="s">
         <v>207</v>
@@ -5076,7 +5771,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>213</v>
       </c>
@@ -5096,7 +5791,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>215</v>
       </c>
@@ -5125,7 +5820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>216</v>
       </c>
@@ -5145,7 +5840,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>217</v>
       </c>
@@ -5174,7 +5869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>220</v>
       </c>
@@ -5194,7 +5889,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>222</v>
       </c>
@@ -5223,7 +5918,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>223</v>
       </c>
@@ -5243,7 +5938,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>224</v>
       </c>
@@ -5272,7 +5967,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>225</v>
       </c>
@@ -5292,7 +5987,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>227</v>
       </c>
@@ -5321,7 +6016,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>228</v>
       </c>
@@ -5341,7 +6036,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>231</v>
       </c>
@@ -5370,7 +6065,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>232</v>
       </c>
@@ -5390,7 +6085,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>233</v>
       </c>
@@ -5419,7 +6114,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>234</v>
       </c>
@@ -5439,7 +6134,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>235</v>
       </c>
@@ -5468,7 +6163,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>236</v>
       </c>
@@ -5488,7 +6183,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>237</v>
       </c>
@@ -5517,7 +6212,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>238</v>
       </c>
@@ -5537,7 +6232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>239</v>
       </c>
@@ -5566,7 +6261,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>240</v>
       </c>
@@ -5586,7 +6281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>241</v>
       </c>
@@ -5615,7 +6310,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>242</v>
       </c>
@@ -5635,7 +6330,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>243</v>
       </c>
@@ -5664,7 +6359,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>244</v>
       </c>
@@ -5684,7 +6379,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>245</v>
       </c>
@@ -5713,7 +6408,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>245</v>
       </c>
@@ -5742,7 +6437,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>248</v>
       </c>
@@ -5762,7 +6457,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>252</v>
       </c>
@@ -5791,7 +6486,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>253</v>
       </c>
@@ -5811,7 +6506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>254</v>
       </c>
@@ -5840,7 +6535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>256</v>
       </c>
@@ -5860,7 +6555,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>257</v>
       </c>
@@ -5889,7 +6584,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>259</v>
       </c>
@@ -5909,7 +6604,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>260</v>
       </c>
@@ -5938,7 +6633,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>263</v>
       </c>
@@ -5958,7 +6653,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>264</v>
       </c>
@@ -5987,7 +6682,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>267</v>
       </c>
@@ -6007,7 +6702,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>268</v>
       </c>
@@ -6036,7 +6731,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>271</v>
       </c>
@@ -6056,7 +6751,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>272</v>
       </c>
@@ -6085,7 +6780,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>273</v>
       </c>
@@ -6105,7 +6800,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
         <v>274</v>
       </c>
@@ -6136,5 +6831,799 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="F2">
+        <v>363.927459584512</v>
+      </c>
+      <c r="G2">
+        <v>344.761775847763</v>
+      </c>
+      <c r="H2">
+        <v>355.595879437481</v>
+      </c>
+      <c r="I2">
+        <v>355.144486498325</v>
+      </c>
+      <c r="J2">
+        <v>365.714879498649</v>
+      </c>
+      <c r="K2">
+        <v>349.000192373311</v>
+      </c>
+      <c r="L2">
+        <v>383.111114037219</v>
+      </c>
+      <c r="M2">
+        <v>383.20540862887</v>
+      </c>
+      <c r="N2">
+        <v>374</v>
+      </c>
+      <c r="O2">
+        <v>549</v>
+      </c>
+      <c r="P2">
+        <v>537</v>
+      </c>
+      <c r="Q2">
+        <v>553</v>
+      </c>
+      <c r="R2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="F3">
+        <v>4848.81744697191</v>
+      </c>
+      <c r="G3">
+        <v>5056.53512643381</v>
+      </c>
+      <c r="H3">
+        <v>5081.93461486689</v>
+      </c>
+      <c r="I3">
+        <v>4899.9228004835</v>
+      </c>
+      <c r="J3">
+        <v>4383.83383981745</v>
+      </c>
+      <c r="K3">
+        <v>4634.61760625725</v>
+      </c>
+      <c r="L3">
+        <v>4772.38604588111</v>
+      </c>
+      <c r="M3">
+        <v>4706.32232711094</v>
+      </c>
+      <c r="N3">
+        <v>4623</v>
+      </c>
+      <c r="O3">
+        <v>4524</v>
+      </c>
+      <c r="P3">
+        <v>4428</v>
+      </c>
+      <c r="Q3">
+        <v>4714</v>
+      </c>
+      <c r="R3">
+        <v>4817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="F4">
+        <v>2509.52238479444</v>
+      </c>
+      <c r="G4">
+        <v>2530.08932684062</v>
+      </c>
+      <c r="H4">
+        <v>2549.13135857222</v>
+      </c>
+      <c r="I4">
+        <v>2728.19573035617</v>
+      </c>
+      <c r="J4">
+        <v>2379.52243903371</v>
+      </c>
+      <c r="K4">
+        <v>2620.17848275877</v>
+      </c>
+      <c r="L4">
+        <v>2794.29794545733</v>
+      </c>
+      <c r="M4">
+        <v>2631.73888542139</v>
+      </c>
+      <c r="N4">
+        <v>2572</v>
+      </c>
+      <c r="O4">
+        <v>2611</v>
+      </c>
+      <c r="P4">
+        <v>2557</v>
+      </c>
+      <c r="Q4">
+        <v>2525</v>
+      </c>
+      <c r="R4">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="F5">
+        <v>7660.77012818354</v>
+      </c>
+      <c r="G5">
+        <v>7796.8276650865</v>
+      </c>
+      <c r="H5">
+        <v>8062.17889705561</v>
+      </c>
+      <c r="I5">
+        <v>7097.33511767776</v>
+      </c>
+      <c r="J5">
+        <v>6894.4271649243</v>
+      </c>
+      <c r="K5">
+        <v>7800.17194986625</v>
+      </c>
+      <c r="L5">
+        <v>7627.22698879812</v>
+      </c>
+      <c r="M5">
+        <v>7391.09965349582</v>
+      </c>
+      <c r="N5">
+        <v>6197</v>
+      </c>
+      <c r="O5">
+        <v>5750</v>
+      </c>
+      <c r="P5">
+        <v>4882</v>
+      </c>
+      <c r="Q5">
+        <v>3626</v>
+      </c>
+      <c r="R5">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="F8">
+        <v>12187.9891737495</v>
+      </c>
+      <c r="G8">
+        <v>12422.6053171829</v>
+      </c>
+      <c r="H8">
+        <v>12232.4322068242</v>
+      </c>
+      <c r="I8">
+        <v>12296.0769463104</v>
+      </c>
+      <c r="J8">
+        <v>12570.0737776987</v>
+      </c>
+      <c r="K8">
+        <v>13411.100042236</v>
+      </c>
+      <c r="L8">
+        <v>13205.6507760144</v>
+      </c>
+      <c r="M8">
+        <v>13868.0893807104</v>
+      </c>
+      <c r="N8">
+        <v>12576</v>
+      </c>
+      <c r="O8">
+        <v>11698</v>
+      </c>
+      <c r="P8">
+        <v>9865</v>
+      </c>
+      <c r="Q8">
+        <v>8802</v>
+      </c>
+      <c r="R8">
+        <v>6633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="F9">
+        <v>703.048790301119</v>
+      </c>
+      <c r="G9">
+        <v>639.389077613405</v>
+      </c>
+      <c r="H9">
+        <v>707.79806214173</v>
+      </c>
+      <c r="I9">
+        <v>726.448260546025</v>
+      </c>
+      <c r="J9">
+        <v>907.392761886802</v>
+      </c>
+      <c r="K9">
+        <v>972.395484857431</v>
+      </c>
+      <c r="L9">
+        <v>1053.79716825494</v>
+      </c>
+      <c r="M9">
+        <v>1025.83920726445</v>
+      </c>
+      <c r="N9">
+        <v>909</v>
+      </c>
+      <c r="O9">
+        <v>908</v>
+      </c>
+      <c r="P9">
+        <v>932</v>
+      </c>
+      <c r="Q9">
+        <v>969</v>
+      </c>
+      <c r="R9">
+        <v>729</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2">
+        <v>44.3138856162107</v>
+      </c>
+      <c r="G2">
+        <v>70.149466364722</v>
+      </c>
+      <c r="H2">
+        <v>68.4214475618405</v>
+      </c>
+      <c r="I2">
+        <v>101.123379343421</v>
+      </c>
+      <c r="J2">
+        <v>115</v>
+      </c>
+      <c r="K2">
+        <v>120</v>
+      </c>
+      <c r="L2">
+        <v>125</v>
+      </c>
+      <c r="M2">
+        <v>120</v>
+      </c>
+      <c r="N2">
+        <v>120</v>
+      </c>
+      <c r="O2">
+        <v>180</v>
+      </c>
+      <c r="P2">
+        <v>350</v>
+      </c>
+      <c r="Q2">
+        <v>450</v>
+      </c>
+      <c r="R2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>150</v>
+      </c>
+      <c r="N3">
+        <v>150</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>270</v>
+      </c>
+      <c r="Q3">
+        <v>200</v>
+      </c>
+      <c r="R3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P4">
+        <v>130</v>
+      </c>
+      <c r="Q4">
+        <v>90</v>
+      </c>
+      <c r="R4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5">
+        <v>120</v>
+      </c>
+      <c r="G5">
+        <v>130</v>
+      </c>
+      <c r="H5">
+        <v>125</v>
+      </c>
+      <c r="I5">
+        <v>120</v>
+      </c>
+      <c r="J5">
+        <v>320</v>
+      </c>
+      <c r="K5">
+        <v>350</v>
+      </c>
+      <c r="L5">
+        <v>550</v>
+      </c>
+      <c r="M5">
+        <v>650</v>
+      </c>
+      <c r="N5">
+        <v>950</v>
+      </c>
+      <c r="O5">
+        <v>1400</v>
+      </c>
+      <c r="P5">
+        <v>2400</v>
+      </c>
+      <c r="Q5">
+        <v>2500</v>
+      </c>
+      <c r="R5">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6">
+        <v>274.614967400654</v>
+      </c>
+      <c r="G6">
+        <v>273.705417523708</v>
+      </c>
+      <c r="H6">
+        <v>279.455772791417</v>
+      </c>
+      <c r="I6">
+        <v>306.397152408629</v>
+      </c>
+      <c r="J6">
+        <v>300</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
+      <c r="M6">
+        <v>420</v>
+      </c>
+      <c r="N6">
+        <v>420</v>
+      </c>
+      <c r="O6">
+        <v>420</v>
+      </c>
+      <c r="P6">
+        <v>420</v>
+      </c>
+      <c r="Q6">
+        <v>420</v>
+      </c>
+      <c r="R6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <v>650</v>
+      </c>
+      <c r="M7">
+        <v>1150</v>
+      </c>
+      <c r="N7">
+        <v>600</v>
+      </c>
+      <c r="O7">
+        <v>850</v>
+      </c>
+      <c r="P7">
+        <v>2300</v>
+      </c>
+      <c r="Q7">
+        <v>3100</v>
+      </c>
+      <c r="R7">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="J8">
+        <v>200</v>
+      </c>
+      <c r="K8">
+        <v>150</v>
+      </c>
+      <c r="L8">
+        <v>150</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9">
+        <v>15884.0831618458</v>
+      </c>
+      <c r="G9">
+        <v>16424.4059432555</v>
+      </c>
+      <c r="H9">
+        <v>16339.8288238621</v>
+      </c>
+      <c r="I9">
+        <v>15711.1848811784</v>
+      </c>
+      <c r="J9">
+        <v>15534.1546333371</v>
+      </c>
+      <c r="K9">
+        <v>15732.5504602147</v>
+      </c>
+      <c r="L9">
+        <v>15873.999621617</v>
+      </c>
+      <c r="M9">
+        <v>16040</v>
+      </c>
+      <c r="N9">
+        <v>15570</v>
+      </c>
+      <c r="O9">
+        <v>16873</v>
+      </c>
+      <c r="P9">
+        <v>17535</v>
+      </c>
+      <c r="Q9">
+        <v>17870</v>
+      </c>
+      <c r="R9">
+        <v>17570</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>